--- a/mappool.xlsx
+++ b/mappool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\osu_refbot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DAEF55-E614-4450-9B9D-280E95877C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9EF9FC-E827-48B0-B43D-277616B24BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1995" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>DT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>HD1</t>
+  </si>
+  <si>
+    <t>HD2</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>HR2</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>DT2</t>
   </si>
 </sst>
 </file>
@@ -59,29 +77,25 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Nunito"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Nunito"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,31 +104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6EEFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4A7D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,46 +148,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,128 +448,116 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="3">
+        <v>3221529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
-        <v>703657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3">
+        <v>2826730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
-        <v>3091046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>2899404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9">
-        <v>2768567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>3156883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
-        <v>2384888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="3">
+        <v>2533065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2590006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <v>1130590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C7" s="3">
+        <v>804021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2871342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C9" s="3">
+        <v>2012311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
-        <v>3409171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1734126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>136673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1939016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2781090</v>
+      <c r="C10" s="3">
+        <v>3028761</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://osu.ppy.sh/beatmaps/2384888" xr:uid="{505D34E6-EE1F-4CAB-9E74-9B8A8C152254}"/>
-    <hyperlink ref="C10" r:id="rId2" display="https://osu.ppy.sh/beatmaps/2781090" xr:uid="{FD7C30CA-A4A0-4576-8545-28B39FC95B89}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mappool.xlsx
+++ b/mappool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\osu_refbot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9EF9FC-E827-48B0-B43D-277616B24BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36B36C2-FC31-4199-BCBA-C5312AFB4FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="1995" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="4740" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>NM1</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>DT2</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>HD3</t>
+  </si>
+  <si>
+    <t>HR3</t>
+  </si>
+  <si>
+    <t>DT3</t>
+  </si>
+  <si>
+    <t>FM1</t>
+  </si>
+  <si>
+    <t>FM2</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
 </sst>
 </file>
@@ -445,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,7 +483,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
-        <v>3221529</v>
+        <v>2274002</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -468,7 +492,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
-        <v>2826730</v>
+        <v>3410584</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -477,7 +501,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
-        <v>2899404</v>
+        <v>2828902</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -486,73 +510,137 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>3156883</v>
+        <v>3230543</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2533065</v>
+        <v>2786752</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>2590006</v>
+        <v>1691606</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>804021</v>
+        <v>2220692</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>2871342</v>
+        <v>3350322</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2012311</v>
+        <v>3168621</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>3028761</v>
+        <v>3389143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2992149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1483764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3208573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3158093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2603706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3455956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3214128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1177137</v>
       </c>
     </row>
   </sheetData>

--- a/mappool.xlsx
+++ b/mappool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\osu_refbot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36B36C2-FC31-4199-BCBA-C5312AFB4FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5BEEA-EE87-4D22-95A9-F855EC5E6A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="4740" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="4395" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
-        <v>2274002</v>
+        <v>1966553</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
-        <v>3410584</v>
+        <v>3056724</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
-        <v>2828902</v>
+        <v>2233533</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>3230543</v>
+        <v>2990225</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2786752</v>
+        <v>3250911</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>1691606</v>
+        <v>2601109</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2220692</v>
+        <v>3361673</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>3350322</v>
+        <v>3226557</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>3168621</v>
+        <v>3460568</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>3389143</v>
+        <v>1101218</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>2992149</v>
+        <v>1994939</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3">
-        <v>1483764</v>
+        <v>2416428</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>3208573</v>
+        <v>3400401</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>3158093</v>
+        <v>3347180</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>2603706</v>
+        <v>125838</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>3455956</v>
+        <v>86324</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>3214128</v>
+        <v>926381</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>1177137</v>
+        <v>2117273</v>
       </c>
     </row>
   </sheetData>

--- a/mappool.xlsx
+++ b/mappool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\osu_refbot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5BEEA-EE87-4D22-95A9-F855EC5E6A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB39CCE3-574C-472E-8259-C9825961D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="4395" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NM1</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>TB</t>
+  </si>
+  <si>
+    <t>NM7</t>
+  </si>
+  <si>
+    <t>DT4</t>
+  </si>
+  <si>
+    <t>FM3</t>
   </si>
 </sst>
 </file>
@@ -133,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,11 +180,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA64D79"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -187,6 +205,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C1" sqref="C1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,7 +507,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
-        <v>1966553</v>
+        <v>3327811</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -492,7 +516,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
-        <v>3056724</v>
+        <v>2594030</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -501,7 +525,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
-        <v>2233533</v>
+        <v>3143258</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -510,7 +534,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
-        <v>2990225</v>
+        <v>2827368</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -521,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3250911</v>
+        <v>2613076</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -532,115 +556,139 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>2601109</v>
+        <v>3257370</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>3361673</v>
+        <v>1241924</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>3226557</v>
+        <v>3069221</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>3460568</v>
+        <v>3153891</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1101218</v>
+        <v>1604076</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>1994939</v>
+        <v>1962416</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>2416428</v>
+        <v>1590310</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>3400401</v>
+        <v>2594547</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>3347180</v>
+        <v>3205713</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>125838</v>
+        <v>2750914</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
-        <v>86324</v>
+        <v>2843601</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
-        <v>926381</v>
+        <v>2292493</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2007041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2741605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1717796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
-        <v>2117273</v>
+      <c r="C21" s="3">
+        <v>1034570</v>
       </c>
     </row>
   </sheetData>
